--- a/biology/Médecine/Maladie_de_Niemann-Pick/Maladie_de_Niemann-Pick.xlsx
+++ b/biology/Médecine/Maladie_de_Niemann-Pick/Maladie_de_Niemann-Pick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie de Niemann-Pick est due à un déficit en sphingomyélinase acide lysosomiale ; elle aboutit à l'accumulation de sphingomyéline, puis de cholestérol dans les monocytes, voire dans le cerveau (type A).
 Cette maladie a été décrite en 1914 par un pédiatre allemand, Albert Niemann (de) ; dans les années 1930, un autre médecin allemand, Ludwig Pick (de) a publié plusieurs articles sur cette pathologie.
@@ -513,7 +525,9 @@
           <t>Maladie de Niemann-Pick type B</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>hépato-splénomégalie
 Ictére à Bilirubine Conjuguée
@@ -547,7 +561,9 @@
           <t>Maladie de Niemann-Pick type A</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aucun traitement n'existant, elle conduit au décès généralement avant l'âge de trois ans.
 Retard de développement psychomoteur,
@@ -581,7 +597,9 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gène de l'ASM (sphingomyélinase acide) est localisé sur le bras court du chromosome 11.
 Cette maladie fait partie des maladies lysosomales.
@@ -613,7 +631,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>maladie de Niemann-Pick type C,
 maladie de surcharge en esters de cholestérol (forme atténuée de la maladie de Wolman).</t>
@@ -644,7 +664,9 @@
           <t>Associations de patients</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Maladie de Niemann-Pick Association Vaincre les Maladies Lysosomales
  Portail de la médecine                     </t>
